--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H2">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N2">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q2">
-        <v>587.6178598932145</v>
+        <v>20.036434253416</v>
       </c>
       <c r="R2">
-        <v>587.6178598932145</v>
+        <v>180.327908280744</v>
       </c>
       <c r="S2">
-        <v>0.967779703735148</v>
+        <v>0.02579478266465136</v>
       </c>
       <c r="T2">
-        <v>0.967779703735148</v>
+        <v>0.02579478266465136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H3">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N3">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q3">
-        <v>1.716230993767169</v>
+        <v>0.2552346693306667</v>
       </c>
       <c r="R3">
-        <v>1.716230993767169</v>
+        <v>2.297112023976</v>
       </c>
       <c r="S3">
-        <v>0.002826553847411827</v>
+        <v>0.0003285875490917875</v>
       </c>
       <c r="T3">
-        <v>0.002826553847411827</v>
+        <v>0.0003285875490917875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.470041185613847</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H4">
-        <v>0.470041185613847</v>
+        <v>47.284298</v>
       </c>
       <c r="I4">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525366</v>
       </c>
       <c r="J4">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525365</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N4">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q4">
-        <v>17.79536024897249</v>
+        <v>723.9433444253893</v>
       </c>
       <c r="R4">
-        <v>17.79536024897249</v>
+        <v>6515.490099828504</v>
       </c>
       <c r="S4">
-        <v>0.02930814334462283</v>
+        <v>0.9320002249297452</v>
       </c>
       <c r="T4">
-        <v>0.02930814334462283</v>
+        <v>0.932000224929745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H5">
+        <v>47.284298</v>
+      </c>
+      <c r="I5">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J5">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5850973333333334</v>
+      </c>
+      <c r="N5">
+        <v>1.755292</v>
+      </c>
+      <c r="O5">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="P5">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="Q5">
+        <v>9.221972222779556</v>
+      </c>
+      <c r="R5">
+        <v>82.997750005016</v>
+      </c>
+      <c r="S5">
+        <v>0.01187231052279148</v>
+      </c>
+      <c r="T5">
+        <v>0.01187231052279148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.470041185613847</v>
-      </c>
-      <c r="H5">
-        <v>0.470041185613847</v>
-      </c>
-      <c r="I5">
-        <v>0.02939374241744025</v>
-      </c>
-      <c r="J5">
-        <v>0.02939374241744025</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.110573644669067</v>
-      </c>
-      <c r="N5">
-        <v>0.110573644669067</v>
-      </c>
-      <c r="O5">
-        <v>0.002912152920229241</v>
-      </c>
-      <c r="P5">
-        <v>0.002912152920229241</v>
-      </c>
-      <c r="Q5">
-        <v>0.05197416703789248</v>
-      </c>
-      <c r="R5">
-        <v>0.05197416703789248</v>
-      </c>
-      <c r="S5">
-        <v>8.559907281741474E-05</v>
-      </c>
-      <c r="T5">
-        <v>8.559907281741474E-05</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.503087</v>
+      </c>
+      <c r="I6">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J6">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>45.931316</v>
+      </c>
+      <c r="N6">
+        <v>137.793948</v>
+      </c>
+      <c r="O6">
+        <v>0.9874217014725413</v>
+      </c>
+      <c r="P6">
+        <v>0.9874217014725412</v>
+      </c>
+      <c r="Q6">
+        <v>23.012921324164</v>
+      </c>
+      <c r="R6">
+        <v>207.116291917476</v>
+      </c>
+      <c r="S6">
+        <v>0.02962669387814484</v>
+      </c>
+      <c r="T6">
+        <v>0.02962669387814483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.503087</v>
+      </c>
+      <c r="I7">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J7">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5850973333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.755292</v>
+      </c>
+      <c r="O7">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="P7">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="Q7">
+        <v>0.2931507318226667</v>
+      </c>
+      <c r="R7">
+        <v>2.638356586404</v>
+      </c>
+      <c r="S7">
+        <v>0.0003774004555755714</v>
+      </c>
+      <c r="T7">
+        <v>0.0003774004555755714</v>
       </c>
     </row>
   </sheetData>
